--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3721222.980582219</v>
+        <v>3824634.7165463</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498515</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7454452.127803635</v>
+        <v>7419422.406530879</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.50519121882265</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>107.3694371199346</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>91.80185417395036</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -865,16 +867,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>220.8333610957798</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>330.1313724127984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>114.491808973822</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>210.7364732324282</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>66.33120233356357</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>119.4052401486918</v>
+        <v>110.0889941979167</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>143.5847006363916</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>150.2062474346978</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695544</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>54.29785174158624</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428405</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206793</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856541</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U16" t="n">
-        <v>284.0339611927429</v>
+        <v>285.597059467113</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695798</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>53.65602513333508</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U19" t="n">
-        <v>139.1886739667915</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,16 +2140,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D22" t="n">
-        <v>68.17501931584161</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856572</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>150.3341561773457</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,16 +2377,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856572</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U25" t="n">
-        <v>142.5631989720328</v>
+        <v>14.76058440587273</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>53.11937003877868</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>150.6726801246967</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652596</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>132.3950627812467</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>35.02467705292102</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>185.7223172888148</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206811</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695979</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>73.78331078915251</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>185.7223172888148</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>798.5065461617548</v>
+        <v>891.2356917920077</v>
       </c>
       <c r="C4" t="n">
-        <v>629.570363233848</v>
+        <v>722.2995088641009</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>572.1828694517651</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>424.269775869372</v>
       </c>
       <c r="F4" t="n">
         <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1200.947590135525</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1200.947590135525</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W4" t="n">
-        <v>1200.947590135525</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X4" t="n">
-        <v>1200.947590135525</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="Y4" t="n">
-        <v>980.1550109919946</v>
+        <v>1072.884156622247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484277</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.03827352421</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548398</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.7875500159902</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.913082195647</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1432.913082195647</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1178.22859398976</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1178.22859398976</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1178.22859398976</v>
+        <v>1027.088808492942</v>
       </c>
       <c r="Y7" t="n">
-        <v>957.4360148462299</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3094.703799450719</v>
+        <v>3104.114148895947</v>
       </c>
       <c r="V8" t="n">
-        <v>2763.640912107148</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2763.640912107148</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>624.6989751875257</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>455.7627922596188</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>455.7627922596188</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>455.7627922596188</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>308.8728447617084</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>308.8728447617084</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5105,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527389</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803934</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516138</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793923</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793923</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400733</v>
+        <v>984.5772922261119</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121665</v>
+        <v>929.7309773356208</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121665</v>
+        <v>779.6143379232848</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121665</v>
+        <v>631.7012443408914</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121665</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270466</v>
+        <v>317.6151975578606</v>
       </c>
       <c r="H13" t="n">
-        <v>93.8166630479718</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138427</v>
+        <v>1205.369871369642</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703128</v>
+        <v>984.5772922261119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551871</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611459</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797177</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192578</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398589</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492573</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474779</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466569</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612122998</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591804</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615992</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5342,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797179</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756263</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756263</v>
+        <v>429.5088224239599</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913847</v>
+        <v>429.5088224239599</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417936</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972542</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211829</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.864119183222</v>
+        <v>803.8641191832239</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553152</v>
+        <v>634.9279362553168</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429797</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578598</v>
+        <v>317.6151975578606</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1757.603793154326</v>
+        <v>1688.979202260899</v>
       </c>
       <c r="V16" t="n">
-        <v>1502.919304948439</v>
+        <v>1434.294714055012</v>
       </c>
       <c r="W16" t="n">
-        <v>1213.502134911479</v>
+        <v>1434.294714055012</v>
       </c>
       <c r="X16" t="n">
-        <v>985.5125840134615</v>
+        <v>1206.305163156994</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134615</v>
+        <v>985.5125840134638</v>
       </c>
     </row>
     <row r="17">
@@ -5492,43 +5494,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638193094</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111762</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075851</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
@@ -5537,28 +5539,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468468</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263525</v>
+        <v>2978.516248701935</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356184</v>
+        <v>2978.516248701935</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232828</v>
+        <v>2828.399609289599</v>
       </c>
       <c r="E19" t="n">
-        <v>631.70124434089</v>
+        <v>2680.486515707206</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429798</v>
+        <v>2533.596568209295</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328843</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.866460342033</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342033</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305072</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407055</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263525</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876722</v>
+        <v>1098.667160263528</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597655</v>
+        <v>929.7309773356208</v>
       </c>
       <c r="D22" t="n">
-        <v>343.099465685178</v>
+        <v>779.6143379232848</v>
       </c>
       <c r="E22" t="n">
-        <v>343.099465685178</v>
+        <v>631.7012443408914</v>
       </c>
       <c r="F22" t="n">
-        <v>343.099465685178</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000581</v>
+        <v>317.6151975578606</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179775</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258108</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602306</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396419</v>
+        <v>1942.378057281679</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359459</v>
+        <v>1652.960887244718</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614416</v>
+        <v>1501.108204237298</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179117</v>
+        <v>1280.315625093768</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>658.9255961109949</v>
+        <v>3031.889214996154</v>
       </c>
       <c r="C25" t="n">
-        <v>489.9894131830881</v>
+        <v>3031.889214996154</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830881</v>
+        <v>2881.772575583818</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830881</v>
+        <v>2733.859482001425</v>
       </c>
       <c r="F25" t="n">
-        <v>343.099465685178</v>
+        <v>2586.969534503514</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000581</v>
+        <v>2419.773435218393</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>2419.773435218393</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038347</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179775</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>4221.331149328843</v>
       </c>
       <c r="U25" t="n">
-        <v>1833.457849225629</v>
+        <v>4206.42146811079</v>
       </c>
       <c r="V25" t="n">
-        <v>1578.773361019742</v>
+        <v>3951.736979904902</v>
       </c>
       <c r="W25" t="n">
-        <v>1289.356190982782</v>
+        <v>3662.319809867942</v>
       </c>
       <c r="X25" t="n">
-        <v>1061.366640084764</v>
+        <v>3434.330258969924</v>
       </c>
       <c r="Y25" t="n">
-        <v>840.5740609412344</v>
+        <v>3213.537679826394</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6220,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>376.4492432300683</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>376.4492432300683</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>229.5592957321579</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>229.5592957321579</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384022</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6694,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,19 +6958,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7026,13 +7028,13 @@
         <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192468</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075867</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332393</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355943</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694712</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852261</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398599</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7236,43 +7238,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273915</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797199</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,19 +7490,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
         <v>1896.176478190825</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2655.833190378096</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>112.9489693570418</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392193967</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.150513196501038</v>
+        <v>0.5874149221313587</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>111.868113158934</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>146.9958004224525</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.44045370237058</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>75.37549921169162</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>143.6212754172112</v>
+        <v>271.4238899833716</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>87.17534280744522</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>75.0369752643405</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>93.31459260779044</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>113.5907959652913</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>100.4621571004294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>100.4621571004294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26319,43 @@
         <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977564</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977562</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="K2" t="n">
-        <v>800515.7256176755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176771</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073542</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363181</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551158</v>
+        <v>85055.02793551212</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685521</v>
+        <v>14216.75207685486</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685532</v>
+        <v>14216.75207685484</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685522</v>
+        <v>14216.75207685486</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685494</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685513</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994832</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539155</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26527,43 @@
         <v>599177.998208076</v>
       </c>
       <c r="D6" t="n">
-        <v>599177.9982080761</v>
+        <v>599177.998208076</v>
       </c>
       <c r="E6" t="n">
-        <v>346216.1909896393</v>
+        <v>346216.1909896382</v>
       </c>
       <c r="F6" t="n">
-        <v>671628.6527969933</v>
+        <v>671628.6527969944</v>
       </c>
       <c r="G6" t="n">
+        <v>671628.6527969937</v>
+      </c>
+      <c r="H6" t="n">
         <v>671628.652796994</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>671628.6527969935</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>454097.4503997161</v>
+      </c>
+      <c r="K6" t="n">
         <v>671628.6527969936</v>
       </c>
-      <c r="J6" t="n">
-        <v>454097.4503997162</v>
-      </c>
-      <c r="K6" t="n">
-        <v>655716.2804301798</v>
-      </c>
       <c r="L6" t="n">
-        <v>675143.9984238131</v>
+        <v>671628.652796994</v>
       </c>
       <c r="M6" t="n">
-        <v>590088.9704883017</v>
+        <v>586573.6248614814</v>
       </c>
       <c r="N6" t="n">
-        <v>675143.9984238134</v>
+        <v>671628.6527969938</v>
       </c>
       <c r="O6" t="n">
-        <v>675143.9984238117</v>
+        <v>671628.6527969936</v>
       </c>
       <c r="P6" t="n">
-        <v>671628.6527969935</v>
+        <v>671628.6527969934</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,16 +26743,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.70828809965</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483745</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973547</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973547</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973547</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292.2286504446579</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>257.903454651073</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>53.61919384898088</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>65.37847710983306</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>35.14151935820911</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>240.191232646861</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>8.812476043741015</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>159.3784530554736</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>131.5899318102101</v>
+        <v>140.9061777609853</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.17031427792918</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.34270184147144</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28144,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.51339456860212e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28804,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.948917218084846e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233468</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>339.9772972286955</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321089</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>432.1946015714827</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950839</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067282</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017567</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532635</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>595.3275373121692</v>
       </c>
       <c r="O18" t="n">
-        <v>700.080820443724</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214695</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106786</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>202.2352659288684</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932249</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>556.532545233504</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>327.118592441407</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817636</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013285</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774858</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>197.8432633066772</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876645</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789202</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35583,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>290.0605676494644</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807537</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35820,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236322274</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924724</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312452</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>463.9858252288359</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992795</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36057,10 +36059,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295322</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098916</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295322</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>425.1908331501707</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316015</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036783</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>167.3462379728921</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3824634.7165463</v>
+        <v>3820622.106532307</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>107.3694371199346</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>148.5889589693344</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.80185417395036</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -867,16 +867,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>114.491808973822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>218.8748435506841</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>66.33120233356357</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>46.83925499574911</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>110.0889941979167</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>143.5847006363916</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>72.33640507852797</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444139</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695544</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576163</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>54.29785174158624</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185657</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>285.597059467113</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576163</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>53.65602513333508</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012183</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856572</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012186</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>150.3341561773457</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856572</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012186</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>14.76058440587273</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2763,22 +2763,22 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>79.90816078628993</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>150.6726801246967</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>132.3950627812467</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>35.02467705292102</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710085</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>185.7223172888148</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206811</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.78331078915251</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>185.7223172888148</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>190.7368854541456</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>20.88994825141581</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223196</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C2" t="n">
-        <v>1144.379366334374</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D2" t="n">
-        <v>786.1136677276231</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287318</v>
+        <v>1548.419770374778</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>891.2356917920077</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>722.2995088641009</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>572.1828694517651</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>424.269775869372</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.676735765777</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X4" t="n">
-        <v>1293.676735765777</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1072.884156622247</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.50962791956</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.547110979148</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1027.088808492942</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.2962293494114</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1977.407367302546</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1608.444850362135</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1250.179151755384</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>864.39089915714</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>453.4049943675324</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.114148895947</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V8" t="n">
-        <v>2773.051261552376</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W8" t="n">
-        <v>2420.282606282261</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2367.546699278358</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1977.407367302546</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6989751875257</v>
+        <v>679.6952191369614</v>
       </c>
       <c r="C10" t="n">
-        <v>455.7627922596188</v>
+        <v>510.7590362090546</v>
       </c>
       <c r="D10" t="n">
-        <v>455.7627922596188</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>455.7627922596188</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>308.8728447617084</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>308.8728447617084</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.227472251596</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1599.542984045709</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1310.125814008749</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6989751875257</v>
+        <v>861.3436839672012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5772922261119</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356208</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232848</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408914</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429808</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578606</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,7 +5223,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.77659230462</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369642</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273915</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273915</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239599</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239599</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969296</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832239</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429808</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429808</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429808</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578606</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000585</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.979202260899</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1434.294714055012</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.294714055012</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156994</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134638</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468476</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589159</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2978.516248701935</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>2978.516248701935</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>2828.399609289599</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>2680.486515707206</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>2533.596568209295</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>2479.398563024108</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650997</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305902</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328843</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.154264430193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263528</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356208</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232848</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408914</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429808</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578606</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487566</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1942.378057281679</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1652.960887244718</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237298</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093768</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3031.889214996154</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3031.889214996154</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001425</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218393</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218393</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4206.42146811079</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3951.736979904902</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3662.319809867942</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3434.330258969924</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3213.537679826394</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6411,19 +6411,19 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.302830625878</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X28" t="n">
         <v>1501.108204237296</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1010.551808964134</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6718,10 +6718,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
@@ -6937,25 +6937,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192468</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1754.779756989948</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1465.362586952987</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.37303605497</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>197.0043242297712</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>197.0043242297712</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>197.0043242297712</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819375</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>112.9489693570418</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5874149221313587</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365912</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>111.868113158934</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272885</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>75.37549921169162</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462241</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.4238899833716</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>172.2294825375381</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>75.0369752643405</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>93.31459260779044</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>113.5907959652913</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>100.4621571004294</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>100.4621571004294</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>34.97276993489152</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>119.4047645948081</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176756</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977564</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="L2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977562</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551212</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820625</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685486</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685484</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685486</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685494</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685499</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>14216.752076855</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>14216.75207685497</v>
+      </c>
+      <c r="N4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685509</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685501</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685513</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729566.7475195165</v>
+        <v>-729566.7475195164</v>
       </c>
       <c r="C6" t="n">
-        <v>599177.998208076</v>
+        <v>599177.9982080765</v>
       </c>
       <c r="D6" t="n">
         <v>599177.998208076</v>
       </c>
       <c r="E6" t="n">
-        <v>346216.1909896382</v>
+        <v>345868.8117352821</v>
       </c>
       <c r="F6" t="n">
-        <v>671628.6527969944</v>
+        <v>671281.2735426368</v>
       </c>
       <c r="G6" t="n">
-        <v>671628.6527969937</v>
+        <v>671281.2735426363</v>
       </c>
       <c r="H6" t="n">
-        <v>671628.652796994</v>
+        <v>671281.2735426365</v>
       </c>
       <c r="I6" t="n">
-        <v>671628.6527969935</v>
+        <v>671281.2735426368</v>
       </c>
       <c r="J6" t="n">
-        <v>454097.4503997161</v>
+        <v>453750.0711453591</v>
       </c>
       <c r="K6" t="n">
-        <v>671628.6527969936</v>
+        <v>671281.2735426368</v>
       </c>
       <c r="L6" t="n">
-        <v>671628.652796994</v>
+        <v>671281.2735426368</v>
       </c>
       <c r="M6" t="n">
-        <v>586573.6248614814</v>
+        <v>586226.2456071249</v>
       </c>
       <c r="N6" t="n">
-        <v>671628.6527969938</v>
+        <v>671281.2735426368</v>
       </c>
       <c r="O6" t="n">
-        <v>671628.6527969936</v>
+        <v>671281.2735426367</v>
       </c>
       <c r="P6" t="n">
-        <v>671628.6527969934</v>
+        <v>671281.2735426371</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973569</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>257.903454651073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>237.6489796867191</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>53.61919384898088</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>240.191232646861</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>32.12032840821786</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>159.3784530554736</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>364.0824706577043</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>140.9061777609853</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>1.17031427792918</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>213.8754331270849</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28146,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.51339456860212e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>-1.414636683656336e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286955</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>432.1946015714827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>595.3275373121692</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32399,31 +32399,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288684</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,31 +32785,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>453.7122424932249</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,28 +33022,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>423.9151577118742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960748</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066772</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>290.0605676494644</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35822,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288359</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453816</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>322.3705304098916</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>285.360777932</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>330.3773834724256</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>167.3462379728921</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3820622.106532307</v>
+        <v>3822382.636835092</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>334.027925302072</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>148.5889589693344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -870,10 +870,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>75.41231307284865</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>218.8748435506841</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>109.6870817625077</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>46.83925499574911</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>123.0917351829271</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>72.33640507852797</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>126.9263824507421</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>40.62253010341785</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>115.7228684476128</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>79.90816078628993</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695634</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576172</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.272891771009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>23.62554568141315</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934771</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>190.7368854541456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>70.04554881124375</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1557845699818</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.419770374778</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.419770374778</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>743.4945603335152</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y2" t="n">
-        <v>1548.419770374778</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4594,13 +4594,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3104.520121052924</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
         <v>3104.520121052924</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977.407367302546</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C8" t="n">
-        <v>1608.444850362135</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D8" t="n">
-        <v>1250.179151755384</v>
+        <v>1040.650304738527</v>
       </c>
       <c r="E8" t="n">
-        <v>864.39089915714</v>
+        <v>654.8620521402825</v>
       </c>
       <c r="F8" t="n">
-        <v>453.4049943675324</v>
+        <v>243.8761473506749</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>232.8441012360755</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539438</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539438</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278358</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302546</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.6952191369614</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090546</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967188</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.227472251596</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1599.542984045709</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.125814008749</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.136263110731</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.3436839672012</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,40 +5050,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,49 +5260,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5980,19 +5980,19 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6007,7 +6007,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1790.525374274257</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6612,13 +6612,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6852,10 +6852,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,61 +6928,61 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E46" t="n">
-        <v>197.0043242297717</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F46" t="n">
-        <v>197.0043242297717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>197.0043242297717</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>40.32043864788577</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>245.5619442858263</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>32.89260457059954</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>172.2294825375381</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.808416965156</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>13.30196929556007</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>34.97276993489152</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>75.3754992116875</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>38.13892827624207</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820625</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26441,16 +26441,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685497</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729566.7475195164</v>
+        <v>-729566.7475195167</v>
       </c>
       <c r="C6" t="n">
+        <v>599177.9982080763</v>
+      </c>
+      <c r="D6" t="n">
         <v>599177.9982080765</v>
       </c>
-      <c r="D6" t="n">
-        <v>599177.998208076</v>
-      </c>
       <c r="E6" t="n">
-        <v>345868.8117352821</v>
+        <v>346181.4530642026</v>
       </c>
       <c r="F6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="G6" t="n">
-        <v>671281.2735426363</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="H6" t="n">
-        <v>671281.2735426365</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="I6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="J6" t="n">
-        <v>453750.0711453591</v>
+        <v>454062.7124742805</v>
       </c>
       <c r="K6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="L6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="M6" t="n">
-        <v>586226.2456071249</v>
+        <v>586538.886936046</v>
       </c>
       <c r="N6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715583</v>
       </c>
       <c r="O6" t="n">
-        <v>671281.2735426367</v>
+        <v>671593.914871558</v>
       </c>
       <c r="P6" t="n">
-        <v>671281.2735426371</v>
+        <v>671593.914871558</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>76.8938003513814</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>237.6489796867191</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>210.7995251327642</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>32.12032840821786</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>218.0651767076272</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0824706577043</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>171.5160292043933</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>213.8754331270849</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,7 +33745,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960748</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33760,7 +33760,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33915,10 +33915,10 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740565</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37408,7 +37408,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
